--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lgals1-Cd69.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lgals1-Cd69.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.13486633333333</v>
+        <v>41.50224066666667</v>
       </c>
       <c r="H2">
-        <v>81.40459899999999</v>
+        <v>124.506722</v>
       </c>
       <c r="I2">
-        <v>0.04747038381101173</v>
+        <v>0.05221750323662051</v>
       </c>
       <c r="J2">
-        <v>0.05206311700485852</v>
+        <v>0.05952024807977383</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.001620666666666667</v>
+        <v>0.03575966666666667</v>
       </c>
       <c r="N2">
-        <v>0.004862</v>
+        <v>0.107279</v>
       </c>
       <c r="O2">
-        <v>4.949959039648898E-05</v>
+        <v>0.0006942156587716005</v>
       </c>
       <c r="P2">
-        <v>4.954707633626947E-05</v>
+        <v>0.0006967312556243</v>
       </c>
       <c r="Q2">
-        <v>0.04397657337088889</v>
+        <v>1.484106292159778</v>
       </c>
       <c r="R2">
-        <v>0.3957891603379999</v>
+        <v>13.356956629438</v>
       </c>
       <c r="S2">
-        <v>2.349764554609202E-06</v>
+        <v>3.625020840881869E-05</v>
       </c>
       <c r="T2">
-        <v>2.579575232543854E-06</v>
+        <v>4.146961717969065E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.13486633333333</v>
+        <v>41.50224066666667</v>
       </c>
       <c r="H3">
-        <v>81.40459899999999</v>
+        <v>124.506722</v>
       </c>
       <c r="I3">
-        <v>0.04747038381101173</v>
+        <v>0.05221750323662051</v>
       </c>
       <c r="J3">
-        <v>0.05206311700485852</v>
+        <v>0.05952024807977383</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.38575</v>
       </c>
       <c r="O3">
-        <v>0.003927286506673307</v>
+        <v>0.002496235893055909</v>
       </c>
       <c r="P3">
-        <v>0.003931054030587401</v>
+        <v>0.002505281386450971</v>
       </c>
       <c r="Q3">
-        <v>3.489091562694444</v>
+        <v>5.336496445722222</v>
       </c>
       <c r="R3">
-        <v>31.40182406424999</v>
+        <v>48.0284680115</v>
       </c>
       <c r="S3">
-        <v>0.0001864297978075894</v>
+        <v>0.0001303472058250152</v>
       </c>
       <c r="T3">
-        <v>0.0002046629259468926</v>
+        <v>0.0001491149696312015</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.13486633333333</v>
+        <v>41.50224066666667</v>
       </c>
       <c r="H4">
-        <v>81.40459899999999</v>
+        <v>124.506722</v>
       </c>
       <c r="I4">
-        <v>0.04747038381101173</v>
+        <v>0.05221750323662051</v>
       </c>
       <c r="J4">
-        <v>0.05206311700485852</v>
+        <v>0.05952024807977383</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.26120333333333</v>
+        <v>35.40596166666666</v>
       </c>
       <c r="N4">
-        <v>60.78361</v>
+        <v>106.217885</v>
       </c>
       <c r="O4">
-        <v>0.6188325376017958</v>
+        <v>0.6873490525508356</v>
       </c>
       <c r="P4">
-        <v>0.6194261959407718</v>
+        <v>0.6898397672033435</v>
       </c>
       <c r="Q4">
-        <v>549.7850442024877</v>
+        <v>1469.426742124774</v>
       </c>
       <c r="R4">
-        <v>4948.06539782239</v>
+        <v>13224.84067912297</v>
       </c>
       <c r="S4">
-        <v>0.02937621807469959</v>
+        <v>0.0358916513762613</v>
       </c>
       <c r="T4">
-        <v>0.03224925851513882</v>
+        <v>0.04105943407923644</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.13486633333333</v>
+        <v>41.50224066666667</v>
       </c>
       <c r="H5">
-        <v>81.40459899999999</v>
+        <v>124.506722</v>
       </c>
       <c r="I5">
-        <v>0.04747038381101173</v>
+        <v>0.05221750323662051</v>
       </c>
       <c r="J5">
-        <v>0.05206311700485852</v>
+        <v>0.05952024807977383</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.094137</v>
+        <v>0.557951</v>
       </c>
       <c r="N5">
-        <v>0.188274</v>
+        <v>1.115902</v>
       </c>
       <c r="O5">
-        <v>0.002875201321156489</v>
+        <v>0.01083170949656335</v>
       </c>
       <c r="P5">
-        <v>0.001918639705910078</v>
+        <v>0.007247306570844877</v>
       </c>
       <c r="Q5">
-        <v>2.554394912021</v>
+        <v>23.15621668220733</v>
       </c>
       <c r="R5">
-        <v>15.326369472126</v>
+        <v>138.937300093244</v>
       </c>
       <c r="S5">
-        <v>0.0001364869102492265</v>
+        <v>0.0005656048256949298</v>
       </c>
       <c r="T5">
-        <v>9.989036349896371E-05</v>
+        <v>0.000431361485006862</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.13486633333333</v>
+        <v>41.50224066666667</v>
       </c>
       <c r="H6">
-        <v>81.40459899999999</v>
+        <v>124.506722</v>
       </c>
       <c r="I6">
-        <v>0.04747038381101173</v>
+        <v>0.05221750323662051</v>
       </c>
       <c r="J6">
-        <v>0.05206311700485852</v>
+        <v>0.05952024807977383</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.25546733333333</v>
+        <v>15.38263466666667</v>
       </c>
       <c r="N6">
-        <v>36.766402</v>
+        <v>46.147904</v>
       </c>
       <c r="O6">
-        <v>0.374315474979978</v>
+        <v>0.2986287864007734</v>
       </c>
       <c r="P6">
-        <v>0.3746745632463946</v>
+        <v>0.2997109135837364</v>
       </c>
       <c r="Q6">
-        <v>332.5504679425331</v>
+        <v>638.4138060234097</v>
       </c>
       <c r="R6">
-        <v>2992.954211482798</v>
+        <v>5745.724254210688</v>
       </c>
       <c r="S6">
-        <v>0.01776889926370071</v>
+        <v>0.01559364962043044</v>
       </c>
       <c r="T6">
-        <v>0.0195067256250413</v>
+        <v>0.01783886792871964</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>621.3636240000001</v>
       </c>
       <c r="I7">
-        <v>0.3623427924198875</v>
+        <v>0.2605968298429562</v>
       </c>
       <c r="J7">
-        <v>0.3973992557702412</v>
+        <v>0.2970419303804923</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.001620666666666667</v>
+        <v>0.03575966666666667</v>
       </c>
       <c r="N7">
-        <v>0.004862</v>
+        <v>0.107279</v>
       </c>
       <c r="O7">
-        <v>4.949959039648898E-05</v>
+        <v>0.0006942156587716005</v>
       </c>
       <c r="P7">
-        <v>4.954707633626947E-05</v>
+        <v>0.0006967312556243</v>
       </c>
       <c r="Q7">
-        <v>0.3356744377653334</v>
+        <v>7.406585357677335</v>
       </c>
       <c r="R7">
-        <v>3.021069939888001</v>
+        <v>66.65926821909601</v>
       </c>
       <c r="S7">
-        <v>1.793581980790446E-05</v>
+        <v>0.0001809103999032185</v>
       </c>
       <c r="T7">
-        <v>1.968997126162482E-05</v>
+        <v>0.0002069583971270663</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>621.3636240000001</v>
       </c>
       <c r="I8">
-        <v>0.3623427924198875</v>
+        <v>0.2605968298429562</v>
       </c>
       <c r="J8">
-        <v>0.3973992557702412</v>
+        <v>0.2970419303804923</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,10 +936,10 @@
         <v>0.38575</v>
       </c>
       <c r="O8">
-        <v>0.003927286506673307</v>
+        <v>0.002496235893055909</v>
       </c>
       <c r="P8">
-        <v>0.003931054030587401</v>
+        <v>0.002505281386450971</v>
       </c>
       <c r="Q8">
         <v>26.63233532866667</v>
@@ -948,10 +948,10 @@
         <v>239.691017958</v>
       </c>
       <c r="S8">
-        <v>0.001423023959460951</v>
+        <v>0.0006505111602705706</v>
       </c>
       <c r="T8">
-        <v>0.00156219794614804</v>
+        <v>0.0007441736191777126</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>621.3636240000001</v>
       </c>
       <c r="I9">
-        <v>0.3623427924198875</v>
+        <v>0.2605968298429562</v>
       </c>
       <c r="J9">
-        <v>0.3973992557702412</v>
+        <v>0.2970419303804923</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.26120333333333</v>
+        <v>35.40596166666666</v>
       </c>
       <c r="N9">
-        <v>60.78361</v>
+        <v>106.217885</v>
       </c>
       <c r="O9">
-        <v>0.6188325376017958</v>
+        <v>0.6873490525508356</v>
       </c>
       <c r="P9">
-        <v>0.6194261959407718</v>
+        <v>0.6898397672033435</v>
       </c>
       <c r="Q9">
-        <v>4196.524909933627</v>
+        <v>7333.325550801694</v>
       </c>
       <c r="R9">
-        <v>37768.72418940264</v>
+        <v>65999.92995721524</v>
       </c>
       <c r="S9">
-        <v>0.2242295097149198</v>
+        <v>0.1791209840903073</v>
       </c>
       <c r="T9">
-        <v>0.2461595092714543</v>
+        <v>0.2049113361033106</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>621.3636240000001</v>
       </c>
       <c r="I10">
-        <v>0.3623427924198875</v>
+        <v>0.2605968298429562</v>
       </c>
       <c r="J10">
-        <v>0.3973992557702412</v>
+        <v>0.2970419303804923</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.094137</v>
+        <v>0.557951</v>
       </c>
       <c r="N10">
-        <v>0.188274</v>
+        <v>1.115902</v>
       </c>
       <c r="O10">
-        <v>0.002875201321156489</v>
+        <v>0.01083170949656335</v>
       </c>
       <c r="P10">
-        <v>0.001918639705910078</v>
+        <v>0.007247306570844877</v>
       </c>
       <c r="Q10">
-        <v>19.497769157496</v>
+        <v>115.563485124808</v>
       </c>
       <c r="R10">
-        <v>116.986614944976</v>
+        <v>693.380910748848</v>
       </c>
       <c r="S10">
-        <v>0.001041808475477192</v>
+        <v>0.002822709156584252</v>
       </c>
       <c r="T10">
-        <v>0.0007624659912198994</v>
+        <v>0.002152753933862989</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>621.3636240000001</v>
       </c>
       <c r="I11">
-        <v>0.3623427924198875</v>
+        <v>0.2605968298429562</v>
       </c>
       <c r="J11">
-        <v>0.3973992557702412</v>
+        <v>0.2970419303804923</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.25546733333333</v>
+        <v>15.38263466666667</v>
       </c>
       <c r="N11">
-        <v>36.766402</v>
+        <v>46.147904</v>
       </c>
       <c r="O11">
-        <v>0.374315474979978</v>
+        <v>0.2986287864007734</v>
       </c>
       <c r="P11">
-        <v>0.3746745632463946</v>
+        <v>0.2997109135837364</v>
       </c>
       <c r="Q11">
-        <v>2538.367198684539</v>
+        <v>3186.069874382677</v>
       </c>
       <c r="R11">
-        <v>22845.30478816085</v>
+        <v>28674.6288694441</v>
       </c>
       <c r="S11">
-        <v>0.1356305144502218</v>
+        <v>0.07782171503589089</v>
       </c>
       <c r="T11">
-        <v>0.1488953925901574</v>
+        <v>0.08902670832701397</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>84.750407</v>
+        <v>104.6648203333333</v>
       </c>
       <c r="H12">
-        <v>254.251221</v>
+        <v>313.994461</v>
       </c>
       <c r="I12">
-        <v>0.1482643879283573</v>
+        <v>0.1316877235234609</v>
       </c>
       <c r="J12">
-        <v>0.1626088848807073</v>
+        <v>0.1501045719796146</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.001620666666666667</v>
+        <v>0.03575966666666667</v>
       </c>
       <c r="N12">
-        <v>0.004862</v>
+        <v>0.107279</v>
       </c>
       <c r="O12">
-        <v>4.949959039648898E-05</v>
+        <v>0.0006942156587716005</v>
       </c>
       <c r="P12">
-        <v>4.954707633626947E-05</v>
+        <v>0.0006967312556243</v>
       </c>
       <c r="Q12">
-        <v>0.1373521596113333</v>
+        <v>3.742779086846556</v>
       </c>
       <c r="R12">
-        <v>1.236169436502</v>
+        <v>33.685011781619</v>
       </c>
       <c r="S12">
-        <v>7.33902647283983E-06</v>
+        <v>9.141967973797183E-05</v>
       </c>
       <c r="T12">
-        <v>8.056794832140061E-06</v>
+        <v>0.000104582546910305</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>84.750407</v>
+        <v>104.6648203333333</v>
       </c>
       <c r="H13">
-        <v>254.251221</v>
+        <v>313.994461</v>
       </c>
       <c r="I13">
-        <v>0.1482643879283573</v>
+        <v>0.1316877235234609</v>
       </c>
       <c r="J13">
-        <v>0.1626088848807073</v>
+        <v>0.1501045719796146</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.38575</v>
       </c>
       <c r="O13">
-        <v>0.003927286506673307</v>
+        <v>0.002496235893055909</v>
       </c>
       <c r="P13">
-        <v>0.003931054030587401</v>
+        <v>0.002505281386450971</v>
       </c>
       <c r="Q13">
-        <v>10.89748983341667</v>
+        <v>13.45815148119445</v>
       </c>
       <c r="R13">
-        <v>98.07740850075</v>
+        <v>121.12336333075</v>
       </c>
       <c r="S13">
-        <v>0.0005822767301312142</v>
+        <v>0.0003287236221340862</v>
       </c>
       <c r="T13">
-        <v>0.0006392243123196273</v>
+        <v>0.0003760541902017185</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>84.750407</v>
+        <v>104.6648203333333</v>
       </c>
       <c r="H14">
-        <v>254.251221</v>
+        <v>313.994461</v>
       </c>
       <c r="I14">
-        <v>0.1482643879283573</v>
+        <v>0.1316877235234609</v>
       </c>
       <c r="J14">
-        <v>0.1626088848807073</v>
+        <v>0.1501045719796146</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.26120333333333</v>
+        <v>35.40596166666666</v>
       </c>
       <c r="N14">
-        <v>60.78361</v>
+        <v>106.217885</v>
       </c>
       <c r="O14">
-        <v>0.6188325376017958</v>
+        <v>0.6873490525508356</v>
       </c>
       <c r="P14">
-        <v>0.6194261959407718</v>
+        <v>0.6898397672033435</v>
       </c>
       <c r="Q14">
-        <v>1717.145228809757</v>
+        <v>3705.758616570554</v>
       </c>
       <c r="R14">
-        <v>15454.30705928781</v>
+        <v>33351.82754913499</v>
       </c>
       <c r="S14">
-        <v>0.0917508274176824</v>
+        <v>0.09051543199642727</v>
       </c>
       <c r="T14">
-        <v>0.1007242029878274</v>
+        <v>0.1035481029905749</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>84.750407</v>
+        <v>104.6648203333333</v>
       </c>
       <c r="H15">
-        <v>254.251221</v>
+        <v>313.994461</v>
       </c>
       <c r="I15">
-        <v>0.1482643879283573</v>
+        <v>0.1316877235234609</v>
       </c>
       <c r="J15">
-        <v>0.1626088848807073</v>
+        <v>0.1501045719796146</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.094137</v>
+        <v>0.557951</v>
       </c>
       <c r="N15">
-        <v>0.188274</v>
+        <v>1.115902</v>
       </c>
       <c r="O15">
-        <v>0.002875201321156489</v>
+        <v>0.01083170949656335</v>
       </c>
       <c r="P15">
-        <v>0.001918639705910078</v>
+        <v>0.007247306570844877</v>
       </c>
       <c r="Q15">
-        <v>7.978149063758999</v>
+        <v>58.39784116980367</v>
       </c>
       <c r="R15">
-        <v>47.868894382554</v>
+        <v>350.387047018822</v>
       </c>
       <c r="S15">
-        <v>0.000426289964052071</v>
+        <v>0.001426403165469881</v>
       </c>
       <c r="T15">
-        <v>0.000311987863065886</v>
+        <v>0.001087853850821719</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>84.750407</v>
+        <v>104.6648203333333</v>
       </c>
       <c r="H16">
-        <v>254.251221</v>
+        <v>313.994461</v>
       </c>
       <c r="I16">
-        <v>0.1482643879283573</v>
+        <v>0.1316877235234609</v>
       </c>
       <c r="J16">
-        <v>0.1626088848807073</v>
+        <v>0.1501045719796146</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.25546733333333</v>
+        <v>15.38263466666667</v>
       </c>
       <c r="N16">
-        <v>36.766402</v>
+        <v>46.147904</v>
       </c>
       <c r="O16">
-        <v>0.374315474979978</v>
+        <v>0.2986287864007734</v>
       </c>
       <c r="P16">
-        <v>0.3746745632463946</v>
+        <v>0.2997109135837364</v>
       </c>
       <c r="Q16">
-        <v>1038.655844475205</v>
+        <v>1610.020693639972</v>
       </c>
       <c r="R16">
-        <v>9347.902600276841</v>
+        <v>14490.18624275974</v>
       </c>
       <c r="S16">
-        <v>0.05549765479001877</v>
+        <v>0.03932574505969173</v>
       </c>
       <c r="T16">
-        <v>0.06092541292266227</v>
+        <v>0.04498797840110601</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>151.2750305</v>
+        <v>292.548645</v>
       </c>
       <c r="H17">
-        <v>302.550061</v>
+        <v>585.0972899999999</v>
       </c>
       <c r="I17">
-        <v>0.2646441545221851</v>
+        <v>0.3680803631748439</v>
       </c>
       <c r="J17">
-        <v>0.1934988860478274</v>
+        <v>0.2797048648634679</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.001620666666666667</v>
+        <v>0.03575966666666667</v>
       </c>
       <c r="N17">
-        <v>0.004862</v>
+        <v>0.107279</v>
       </c>
       <c r="O17">
-        <v>4.949959039648898E-05</v>
+        <v>0.0006942156587716005</v>
       </c>
       <c r="P17">
-        <v>4.954707633626947E-05</v>
+        <v>0.0006967312556243</v>
       </c>
       <c r="Q17">
-        <v>0.2451663994303333</v>
+        <v>10.461442028985</v>
       </c>
       <c r="R17">
-        <v>1.470998396582</v>
+        <v>62.76865217390999</v>
       </c>
       <c r="S17">
-        <v>1.30997772496733E-05</v>
+        <v>0.0002555271518023142</v>
       </c>
       <c r="T17">
-        <v>9.587304077994811E-06</v>
+        <v>0.0001948791217005491</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>151.2750305</v>
+        <v>292.548645</v>
       </c>
       <c r="H18">
-        <v>302.550061</v>
+        <v>585.0972899999999</v>
       </c>
       <c r="I18">
-        <v>0.2646441545221851</v>
+        <v>0.3680803631748439</v>
       </c>
       <c r="J18">
-        <v>0.1934988860478274</v>
+        <v>0.2797048648634679</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,22 +1556,22 @@
         <v>0.38575</v>
       </c>
       <c r="O18">
-        <v>0.003927286506673307</v>
+        <v>0.002496235893055909</v>
       </c>
       <c r="P18">
-        <v>0.003931054030587401</v>
+        <v>0.002505281386450971</v>
       </c>
       <c r="Q18">
-        <v>19.45144767179166</v>
+        <v>37.61687993624999</v>
       </c>
       <c r="R18">
-        <v>116.70868603075</v>
+        <v>225.7012796174999</v>
       </c>
       <c r="S18">
-        <v>0.001039333417124943</v>
+        <v>0.0009188154140860997</v>
       </c>
       <c r="T18">
-        <v>0.000760654575912484</v>
+        <v>0.0007007393916422303</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>151.2750305</v>
+        <v>292.548645</v>
       </c>
       <c r="H19">
-        <v>302.550061</v>
+        <v>585.0972899999999</v>
       </c>
       <c r="I19">
-        <v>0.2646441545221851</v>
+        <v>0.3680803631748439</v>
       </c>
       <c r="J19">
-        <v>0.1934988860478274</v>
+        <v>0.2797048648634679</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>20.26120333333333</v>
+        <v>35.40596166666666</v>
       </c>
       <c r="N19">
-        <v>60.78361</v>
+        <v>106.217885</v>
       </c>
       <c r="O19">
-        <v>0.6188325376017958</v>
+        <v>0.6873490525508356</v>
       </c>
       <c r="P19">
-        <v>0.6194261959407718</v>
+        <v>0.6898397672033435</v>
       </c>
       <c r="Q19">
-        <v>3065.014152216701</v>
+        <v>10357.96611050527</v>
       </c>
       <c r="R19">
-        <v>18390.08491330021</v>
+        <v>62147.79666303164</v>
       </c>
       <c r="S19">
-        <v>0.1637704137044456</v>
+        <v>0.2529996888907964</v>
       </c>
       <c r="T19">
-        <v>0.1198582789033826</v>
+        <v>0.1929515388630574</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>151.2750305</v>
+        <v>292.548645</v>
       </c>
       <c r="H20">
-        <v>302.550061</v>
+        <v>585.0972899999999</v>
       </c>
       <c r="I20">
-        <v>0.2646441545221851</v>
+        <v>0.3680803631748439</v>
       </c>
       <c r="J20">
-        <v>0.1934988860478274</v>
+        <v>0.2797048648634679</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.094137</v>
+        <v>0.557951</v>
       </c>
       <c r="N20">
-        <v>0.188274</v>
+        <v>1.115902</v>
       </c>
       <c r="O20">
-        <v>0.002875201321156489</v>
+        <v>0.01083170949656335</v>
       </c>
       <c r="P20">
-        <v>0.001918639705910078</v>
+        <v>0.007247306570844877</v>
       </c>
       <c r="Q20">
-        <v>14.2405775461785</v>
+        <v>163.227809026395</v>
       </c>
       <c r="R20">
-        <v>56.96231018471399</v>
+        <v>652.9112361055799</v>
       </c>
       <c r="S20">
-        <v>0.0007609052227185285</v>
+        <v>0.003986939565299443</v>
       </c>
       <c r="T20">
-        <v>0.0003712546458207312</v>
+        <v>0.002027106905022289</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>151.2750305</v>
+        <v>292.548645</v>
       </c>
       <c r="H21">
-        <v>302.550061</v>
+        <v>585.0972899999999</v>
       </c>
       <c r="I21">
-        <v>0.2646441545221851</v>
+        <v>0.3680803631748439</v>
       </c>
       <c r="J21">
-        <v>0.1934988860478274</v>
+        <v>0.2797048648634679</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>12.25546733333333</v>
+        <v>15.38263466666667</v>
       </c>
       <c r="N21">
-        <v>36.766402</v>
+        <v>46.147904</v>
       </c>
       <c r="O21">
-        <v>0.374315474979978</v>
+        <v>0.2986287864007734</v>
       </c>
       <c r="P21">
-        <v>0.3746745632463946</v>
+        <v>0.2997109135837364</v>
       </c>
       <c r="Q21">
-        <v>1853.946194641753</v>
+        <v>4500.16892826336</v>
       </c>
       <c r="R21">
-        <v>11123.67716785052</v>
+        <v>27001.01356958015</v>
       </c>
       <c r="S21">
-        <v>0.0990604024006464</v>
+        <v>0.1099193921528596</v>
       </c>
       <c r="T21">
-        <v>0.07249911061863359</v>
+        <v>0.08383060058204549</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>101.3352343333333</v>
+        <v>148.958664</v>
       </c>
       <c r="H22">
-        <v>304.005703</v>
+        <v>446.875992</v>
       </c>
       <c r="I22">
-        <v>0.1772782813185584</v>
+        <v>0.1874175802221185</v>
       </c>
       <c r="J22">
-        <v>0.1944298562963656</v>
+        <v>0.2136283846966514</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.001620666666666667</v>
+        <v>0.03575966666666667</v>
       </c>
       <c r="N22">
-        <v>0.004862</v>
+        <v>0.107279</v>
       </c>
       <c r="O22">
-        <v>4.949959039648898E-05</v>
+        <v>0.0006942156587716005</v>
       </c>
       <c r="P22">
-        <v>4.954707633626947E-05</v>
+        <v>0.0006967312556243</v>
       </c>
       <c r="Q22">
-        <v>0.1642306364428889</v>
+        <v>5.326712171752</v>
       </c>
       <c r="R22">
-        <v>1.478075727986</v>
+        <v>47.940409545768</v>
       </c>
       <c r="S22">
-        <v>8.775202311462184E-06</v>
+        <v>0.0001301082189192772</v>
       </c>
       <c r="T22">
-        <v>9.633430931965931E-06</v>
+        <v>0.0001488415727066889</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>101.3352343333333</v>
+        <v>148.958664</v>
       </c>
       <c r="H23">
-        <v>304.005703</v>
+        <v>446.875992</v>
       </c>
       <c r="I23">
-        <v>0.1772782813185584</v>
+        <v>0.1874175802221185</v>
       </c>
       <c r="J23">
-        <v>0.1944298562963656</v>
+        <v>0.2136283846966514</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1866,22 +1866,22 @@
         <v>0.38575</v>
       </c>
       <c r="O23">
-        <v>0.003927286506673307</v>
+        <v>0.002496235893055909</v>
       </c>
       <c r="P23">
-        <v>0.003931054030587401</v>
+        <v>0.002505281386450971</v>
       </c>
       <c r="Q23">
-        <v>13.03002221469444</v>
+        <v>19.153601546</v>
       </c>
       <c r="R23">
-        <v>117.27019993225</v>
+        <v>172.382413914</v>
       </c>
       <c r="S23">
-        <v>0.000696222602148609</v>
+        <v>0.0004678384907401374</v>
       </c>
       <c r="T23">
-        <v>0.0007643142702603573</v>
+        <v>0.0005351992157981081</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>101.3352343333333</v>
+        <v>148.958664</v>
       </c>
       <c r="H24">
-        <v>304.005703</v>
+        <v>446.875992</v>
       </c>
       <c r="I24">
-        <v>0.1772782813185584</v>
+        <v>0.1874175802221185</v>
       </c>
       <c r="J24">
-        <v>0.1944298562963656</v>
+        <v>0.2136283846966514</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>20.26120333333333</v>
+        <v>35.40596166666666</v>
       </c>
       <c r="N24">
-        <v>60.78361</v>
+        <v>106.217885</v>
       </c>
       <c r="O24">
-        <v>0.6188325376017958</v>
+        <v>0.6873490525508356</v>
       </c>
       <c r="P24">
-        <v>0.6194261959407718</v>
+        <v>0.6898397672033435</v>
       </c>
       <c r="Q24">
-        <v>2053.173787658648</v>
+        <v>5274.02474750188</v>
       </c>
       <c r="R24">
-        <v>18478.56408892783</v>
+        <v>47466.22272751692</v>
       </c>
       <c r="S24">
-        <v>0.1097055686900485</v>
+        <v>0.1288212961970434</v>
       </c>
       <c r="T24">
-        <v>0.1204349462629687</v>
+        <v>0.1473693551671643</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>101.3352343333333</v>
+        <v>148.958664</v>
       </c>
       <c r="H25">
-        <v>304.005703</v>
+        <v>446.875992</v>
       </c>
       <c r="I25">
-        <v>0.1772782813185584</v>
+        <v>0.1874175802221185</v>
       </c>
       <c r="J25">
-        <v>0.1944298562963656</v>
+        <v>0.2136283846966514</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M25">
-        <v>0.094137</v>
+        <v>0.557951</v>
       </c>
       <c r="N25">
-        <v>0.188274</v>
+        <v>1.115902</v>
       </c>
       <c r="O25">
-        <v>0.002875201321156489</v>
+        <v>0.01083170949656335</v>
       </c>
       <c r="P25">
-        <v>0.001918639705910078</v>
+        <v>0.007247306570844877</v>
       </c>
       <c r="Q25">
-        <v>9.539394954437</v>
+        <v>83.111635537464</v>
       </c>
       <c r="R25">
-        <v>57.23636972662199</v>
+        <v>498.669813224784</v>
       </c>
       <c r="S25">
-        <v>0.0005097107486594708</v>
+        <v>0.002030052783514844</v>
       </c>
       <c r="T25">
-        <v>0.0003730408423045976</v>
+        <v>0.001548230396131018</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>101.3352343333333</v>
+        <v>148.958664</v>
       </c>
       <c r="H26">
-        <v>304.005703</v>
+        <v>446.875992</v>
       </c>
       <c r="I26">
-        <v>0.1772782813185584</v>
+        <v>0.1874175802221185</v>
       </c>
       <c r="J26">
-        <v>0.1944298562963656</v>
+        <v>0.2136283846966514</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>12.25546733333333</v>
+        <v>15.38263466666667</v>
       </c>
       <c r="N26">
-        <v>36.766402</v>
+        <v>46.147904</v>
       </c>
       <c r="O26">
-        <v>0.374315474979978</v>
+        <v>0.2986287864007734</v>
       </c>
       <c r="P26">
-        <v>0.3746745632463946</v>
+        <v>0.2997109135837364</v>
       </c>
       <c r="Q26">
-        <v>1241.910654087845</v>
+        <v>2291.376708746752</v>
       </c>
       <c r="R26">
-        <v>11177.19588679061</v>
+        <v>20622.39037872077</v>
       </c>
       <c r="S26">
-        <v>0.06635800407539034</v>
+        <v>0.05596828453190084</v>
       </c>
       <c r="T26">
-        <v>0.07284792148990005</v>
+        <v>0.06402675834485126</v>
       </c>
     </row>
   </sheetData>
